--- a/html/Sygehus-EPJ-systemer_excel.XLSX
+++ b/html/Sygehus-EPJ-systemer_excel.XLSX
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62578D47-AF07-4644-A75E-AB76E78019B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1841DCEE-58EF-450E-99A9-9AE215BE90F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 12-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Sygehus_EPJ_systemer">'Opdateret d. 12-05-2025'!$A$1:$F$104</definedName>
+    <definedName name="Sygehus_EPJ_systemer">'Opdateret d. 16-05-2025'!$A$1:$F$104</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>

--- a/html/Sygehus-EPJ-systemer_excel.XLSX
+++ b/html/Sygehus-EPJ-systemer_excel.XLSX
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1841DCEE-58EF-450E-99A9-9AE215BE90F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B32725C-5A8C-4833-9FBA-E4D5C13632EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Sygehus_EPJ_systemer">'Opdateret d. 16-05-2025'!$A$1:$F$104</definedName>
+    <definedName name="Sygehus_EPJ_systemer">'Opdateret d. 02-12-2025'!$A$1:$F$104</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="155">
   <si>
     <t>Standard</t>
   </si>
@@ -52,109 +52,109 @@
     <t>Modtage</t>
   </si>
   <si>
+    <t>Godkendt</t>
+  </si>
+  <si>
+    <t>Binær dokumenttransport</t>
+  </si>
+  <si>
+    <t>BIN01 (B0131X)</t>
+  </si>
+  <si>
+    <t>Negativ VANS kvittering</t>
+  </si>
+  <si>
+    <t>CTL01 (C0130Q)</t>
+  </si>
+  <si>
+    <t>Negativ kvittering</t>
+  </si>
+  <si>
+    <t>CTL02 (C0230Q)</t>
+  </si>
+  <si>
+    <t>Positiv kvittering</t>
+  </si>
+  <si>
+    <t>CTL03 (C0330Q)</t>
+  </si>
+  <si>
+    <t>Udskrivningsepikrise</t>
+  </si>
+  <si>
+    <t>DIS01 (D0133L)</t>
+  </si>
+  <si>
+    <t>DIS01 (D0134L)</t>
+  </si>
+  <si>
+    <t>Ikke Godkendt</t>
+  </si>
+  <si>
+    <t>Ambulantepikrise</t>
+  </si>
+  <si>
+    <t>DIS02 (D0233L)</t>
+  </si>
+  <si>
+    <t>DIS02 (D0234L)</t>
+  </si>
+  <si>
+    <t>Skadestueepikrise</t>
+  </si>
+  <si>
+    <t>DIS03 (D0333L)</t>
+  </si>
+  <si>
+    <t>Billeddiagnostisk epikrise</t>
+  </si>
+  <si>
+    <t>DIS05 (D0533L)</t>
+  </si>
+  <si>
+    <t>Speciallægeepikrise</t>
+  </si>
+  <si>
+    <t>DIS07 (D0733L)</t>
+  </si>
+  <si>
+    <t>Fysioterapiepikrise</t>
+  </si>
+  <si>
+    <t>DIS08 (D0833L)</t>
+  </si>
+  <si>
+    <t>Psykologepikrise</t>
+  </si>
+  <si>
+    <t>DIS10 (D1034L)</t>
+  </si>
+  <si>
+    <t>Bookingsvar</t>
+  </si>
+  <si>
+    <t>DIS13 (D1333L)</t>
+  </si>
+  <si>
+    <t>Indlæggelsessvar</t>
+  </si>
+  <si>
+    <t>DIS14 (D1431C)</t>
+  </si>
+  <si>
+    <t>Korrespondancebrev</t>
+  </si>
+  <si>
+    <t>DIS91 (D9134L)</t>
+  </si>
+  <si>
+    <t>RehabilitationPlan</t>
+  </si>
+  <si>
+    <t>GGOP (GGOP100)</t>
+  </si>
+  <si>
     <t>Tester</t>
-  </si>
-  <si>
-    <t>Godkendt</t>
-  </si>
-  <si>
-    <t>Binær dokumenttransport</t>
-  </si>
-  <si>
-    <t>BIN01 (B0131X)</t>
-  </si>
-  <si>
-    <t>Negativ VANS kvittering</t>
-  </si>
-  <si>
-    <t>CTL01 (C0130Q)</t>
-  </si>
-  <si>
-    <t>Negativ kvittering</t>
-  </si>
-  <si>
-    <t>CTL02 (C0230Q)</t>
-  </si>
-  <si>
-    <t>Positiv kvittering</t>
-  </si>
-  <si>
-    <t>CTL03 (C0330Q)</t>
-  </si>
-  <si>
-    <t>Udskrivningsepikrise</t>
-  </si>
-  <si>
-    <t>DIS01 (D0133L)</t>
-  </si>
-  <si>
-    <t>DIS01 (D0134L)</t>
-  </si>
-  <si>
-    <t>Ikke Godkendt</t>
-  </si>
-  <si>
-    <t>Ambulantepikrise</t>
-  </si>
-  <si>
-    <t>DIS02 (D0233L)</t>
-  </si>
-  <si>
-    <t>DIS02 (D0234L)</t>
-  </si>
-  <si>
-    <t>Skadestueepikrise</t>
-  </si>
-  <si>
-    <t>DIS03 (D0333L)</t>
-  </si>
-  <si>
-    <t>Billeddiagnostisk epikrise</t>
-  </si>
-  <si>
-    <t>DIS05 (D0533L)</t>
-  </si>
-  <si>
-    <t>Speciallægeepikrise</t>
-  </si>
-  <si>
-    <t>DIS07 (D0733L)</t>
-  </si>
-  <si>
-    <t>Fysioterapiepikrise</t>
-  </si>
-  <si>
-    <t>DIS08 (D0833L)</t>
-  </si>
-  <si>
-    <t>Psykologepikrise</t>
-  </si>
-  <si>
-    <t>DIS10 (D1034L)</t>
-  </si>
-  <si>
-    <t>Bookingsvar</t>
-  </si>
-  <si>
-    <t>DIS13 (D1333L)</t>
-  </si>
-  <si>
-    <t>Indlæggelsessvar</t>
-  </si>
-  <si>
-    <t>DIS14 (D1431C)</t>
-  </si>
-  <si>
-    <t>Korrespondancebrev</t>
-  </si>
-  <si>
-    <t>DIS91 (D9134L)</t>
-  </si>
-  <si>
-    <t>RehabilitationPlan</t>
-  </si>
-  <si>
-    <t>GGOP (GGOP100)</t>
   </si>
   <si>
     <t>Personal Data Card</t>
@@ -871,281 +871,281 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
         <v>43</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,7 +1159,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1173,10 +1173,10 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1190,7 +1190,7 @@
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1204,7 +1204,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1232,10 +1232,10 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1249,13 +1249,13 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1269,7 +1269,7 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1283,13 +1283,13 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1303,10 +1303,10 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1320,7 +1320,7 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1348,7 +1348,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1362,7 +1362,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1376,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1390,7 +1390,7 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1404,7 +1404,7 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1418,7 +1418,7 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1432,10 +1432,10 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1449,13 +1449,13 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1483,7 +1483,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1497,10 +1497,10 @@
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1514,7 +1514,7 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1528,7 +1528,7 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1542,7 +1542,7 @@
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1556,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1570,7 +1570,7 @@
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1584,7 +1584,7 @@
         <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1598,7 +1598,7 @@
         <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1612,7 +1612,7 @@
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1626,7 +1626,7 @@
         <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1640,64 +1640,64 @@
         <v>103</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
         <v>11</v>
       </c>
-      <c r="B53" t="s">
-        <v>12</v>
-      </c>
       <c r="C53" t="s">
         <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
         <v>15</v>
       </c>
-      <c r="B54" t="s">
-        <v>16</v>
-      </c>
       <c r="C54" t="s">
         <v>103</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
         <v>17</v>
       </c>
-      <c r="B55" t="s">
-        <v>18</v>
-      </c>
       <c r="C55" t="s">
         <v>103</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1711,128 +1711,128 @@
         <v>103</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
         <v>19</v>
       </c>
-      <c r="B57" t="s">
-        <v>20</v>
-      </c>
       <c r="C57" t="s">
         <v>103</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" t="s">
         <v>21</v>
-      </c>
-      <c r="C58" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
         <v>23</v>
       </c>
-      <c r="B59" t="s">
-        <v>24</v>
-      </c>
       <c r="C59" t="s">
         <v>103</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60" t="s">
         <v>103</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
         <v>26</v>
       </c>
-      <c r="B61" t="s">
-        <v>27</v>
-      </c>
       <c r="C61" t="s">
         <v>103</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" t="s">
         <v>28</v>
       </c>
-      <c r="B62" t="s">
-        <v>29</v>
-      </c>
       <c r="C62" t="s">
         <v>103</v>
       </c>
       <c r="F62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" t="s">
         <v>34</v>
       </c>
-      <c r="B63" t="s">
-        <v>35</v>
-      </c>
       <c r="C63" t="s">
         <v>103</v>
       </c>
       <c r="F63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" t="s">
         <v>36</v>
       </c>
-      <c r="B64" t="s">
-        <v>37</v>
-      </c>
       <c r="C64" t="s">
         <v>103</v>
       </c>
       <c r="F64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1846,10 +1846,10 @@
         <v>103</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1863,53 +1863,53 @@
         <v>103</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" t="s">
         <v>40</v>
       </c>
-      <c r="B67" t="s">
-        <v>41</v>
-      </c>
       <c r="C67" t="s">
         <v>103</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" t="s">
         <v>42</v>
       </c>
-      <c r="B68" t="s">
-        <v>43</v>
-      </c>
       <c r="C68" t="s">
         <v>103</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,7 +1940,7 @@
         <v>103</v>
       </c>
       <c r="F70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1982,7 +1982,7 @@
         <v>103</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -1996,10 +1996,10 @@
         <v>103</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2013,13 +2013,13 @@
         <v>103</v>
       </c>
       <c r="D75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2033,7 +2033,7 @@
         <v>103</v>
       </c>
       <c r="F76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2047,10 +2047,10 @@
         <v>103</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2064,10 +2064,10 @@
         <v>103</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2081,7 +2081,7 @@
         <v>103</v>
       </c>
       <c r="F79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2095,7 +2095,7 @@
         <v>103</v>
       </c>
       <c r="F80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2109,7 +2109,7 @@
         <v>103</v>
       </c>
       <c r="F81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2123,7 +2123,7 @@
         <v>103</v>
       </c>
       <c r="F82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2137,7 +2137,7 @@
         <v>103</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
@@ -2154,13 +2154,13 @@
         <v>103</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2174,7 +2174,7 @@
         <v>103</v>
       </c>
       <c r="F85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2188,7 +2188,7 @@
         <v>103</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2202,7 +2202,7 @@
         <v>103</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2216,10 +2216,10 @@
         <v>103</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2233,10 +2233,10 @@
         <v>103</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2250,13 +2250,13 @@
         <v>103</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2270,7 +2270,7 @@
         <v>103</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2284,13 +2284,13 @@
         <v>103</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2304,10 +2304,10 @@
         <v>103</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2321,7 +2321,7 @@
         <v>103</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2335,13 +2335,13 @@
         <v>103</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2355,10 +2355,10 @@
         <v>103</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2371,8 +2371,11 @@
       <c r="C97" t="s">
         <v>103</v>
       </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
       <c r="F97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2386,7 +2389,7 @@
         <v>103</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2400,7 +2403,7 @@
         <v>103</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2414,7 +2417,7 @@
         <v>103</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2428,10 +2431,10 @@
         <v>103</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2445,7 +2448,7 @@
         <v>103</v>
       </c>
       <c r="F102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2459,7 +2462,7 @@
         <v>103</v>
       </c>
       <c r="F103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2473,7 +2476,7 @@
         <v>103</v>
       </c>
       <c r="F104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/html/Sygehus-EPJ-systemer_excel.XLSX
+++ b/html/Sygehus-EPJ-systemer_excel.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B32725C-5A8C-4833-9FBA-E4D5C13632EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEED2BC-1AA9-44B8-8534-1C8B09F50A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/html/Sygehus-EPJ-systemer_excel.XLSX
+++ b/html/Sygehus-EPJ-systemer_excel.XLSX
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEED2BC-1AA9-44B8-8534-1C8B09F50A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E6920F-2E19-4284-8E9B-5F061A09B459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Sygehus_EPJ_systemer">'Opdateret d. 02-12-2025'!$A$1:$F$104</definedName>
+    <definedName name="Sygehus_EPJ_systemer">'Opdateret d. 05-12-2025'!$A$1:$F$104</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -835,9 +835,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -857,7 +857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -874,7 +874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -888,7 +888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -908,7 +908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -928,7 +928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -948,7 +948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -965,7 +965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -979,7 +979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -996,7 +996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>106</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>108</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>110</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>114</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>116</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>51</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>53</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>53</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>56</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>56</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>119</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>123</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>125</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>127</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>129</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>59</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>61</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>65</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>67</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>69</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>71</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>73</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>131</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>133</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>135</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>137</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>139</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>141</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>143</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>145</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>147</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>149</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>151</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>153</v>
       </c>

--- a/html/Sygehus-EPJ-systemer_excel.XLSX
+++ b/html/Sygehus-EPJ-systemer_excel.XLSX
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E6920F-2E19-4284-8E9B-5F061A09B459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9F9838-7453-4B5D-A2CA-DA182FD7BC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30855" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 19-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Sygehus_EPJ_systemer">'Opdateret d. 05-12-2025'!$A$1:$F$104</definedName>
+    <definedName name="Sygehus_EPJ_systemer">'Opdateret d. 19-12-2025'!$A$1:$F$104</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="155">
   <si>
     <t>Standard</t>
   </si>
@@ -835,9 +835,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -857,7 +857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -874,7 +874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -888,7 +888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -908,7 +908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -928,7 +928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -948,7 +948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -965,7 +965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -979,7 +979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -996,7 +996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>106</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>108</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>110</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>114</v>
       </c>
@@ -1956,8 +1956,11 @@
       <c r="D71" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>116</v>
       </c>
@@ -1970,8 +1973,11 @@
       <c r="D72" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>51</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>53</v>
       </c>
@@ -2002,7 +2008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>53</v>
       </c>
@@ -2022,7 +2028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>56</v>
       </c>
@@ -2036,7 +2042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>56</v>
       </c>
@@ -2053,7 +2059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>119</v>
       </c>
@@ -2070,7 +2076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -2084,7 +2090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>123</v>
       </c>
@@ -2098,7 +2104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>125</v>
       </c>
@@ -2112,7 +2118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>127</v>
       </c>
@@ -2126,7 +2132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>129</v>
       </c>
@@ -2143,7 +2149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>59</v>
       </c>
@@ -2163,7 +2169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>61</v>
       </c>
@@ -2177,7 +2183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>65</v>
       </c>
@@ -2191,7 +2197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>67</v>
       </c>
@@ -2205,7 +2211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>69</v>
       </c>
@@ -2222,7 +2228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>71</v>
       </c>
@@ -2239,7 +2245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>73</v>
       </c>
@@ -2259,7 +2265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>131</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>133</v>
       </c>
@@ -2293,7 +2299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>135</v>
       </c>
@@ -2310,7 +2316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>137</v>
       </c>
@@ -2324,7 +2330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>139</v>
       </c>
@@ -2344,7 +2350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>141</v>
       </c>
@@ -2361,7 +2367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -2378,7 +2384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -2392,7 +2398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>143</v>
       </c>
@@ -2406,7 +2412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>145</v>
       </c>
@@ -2420,7 +2426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>147</v>
       </c>
@@ -2437,7 +2443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>149</v>
       </c>
@@ -2451,7 +2457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>151</v>
       </c>
@@ -2465,7 +2471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>153</v>
       </c>
